--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1074132.241477293</v>
+        <v>1036095.625296017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779184</v>
+        <v>421727.3537779181</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>242.2465923871697</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14.24973044685159</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>24.01204759233135</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.6632391128568</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.07907767104376</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>214.4088038782139</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -946,7 +946,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>65.74105334505376</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -1031,19 +1031,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>59.33202238395851</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.1244481218602</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>214.4088038782139</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>63.94722519243877</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.07867728478339</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.15457984420474</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>58.15190235489052</v>
+        <v>228.542836138075</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -1384,13 +1384,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2787150142871</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>83.51342957218341</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>177.6533237264606</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.0803911228117</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>153.5599067166016</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -1703,10 +1703,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1742,7 +1742,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
-        <v>132.6917352486297</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>76.73536799488694</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.3712938016122</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.5149286494106</v>
@@ -1906,10 +1906,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>65.9598178455928</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -1925,7 +1925,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>53.66853612673688</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>73.6258157718804</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>19.80828794586053</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>43.80505410929688</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>157.0926724669969</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853824</v>
+        <v>102.2787150142871</v>
       </c>
       <c r="I21" t="n">
         <v>63.56783007605712</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T21" t="n">
         <v>195.6974464808964</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>20.10766119340089</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>261.6381735857466</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>34.54515316270189</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.7941865060818</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
-        <v>22.34031300679495</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T24" t="n">
         <v>195.6974464808964</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>43.3161350561188</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>102.96412206626</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>42.08489701247653</v>
       </c>
       <c r="W26" t="n">
-        <v>341.4789957774099</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -2654,7 +2654,7 @@
         <v>104.0288287853824</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>128.2342301244892</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2043989917631</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.189445750184</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>51.08315982662424</v>
       </c>
       <c r="D29" t="n">
-        <v>118.6013697453227</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>64.66640004843116</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T30" t="n">
         <v>195.6974464808964</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>11.08545109818638</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>13.79796488331032</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>63.64170646647295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>140.6760653032317</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>117.9287471893066</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853824</v>
+        <v>22.34031300679451</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>53.33473024000175</v>
       </c>
       <c r="S33" t="n">
-        <v>74.89949988448734</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.2749022702667</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>50.42797305210055</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>14.2639380194303</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>127.448701772486</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -3334,7 +3334,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.79394451941992</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>183.9716034484463</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.18312215397116</v>
+        <v>57.50855533257196</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -3587,7 +3587,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>104.8849065053834</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>156.5880156630749</v>
@@ -3647,7 +3647,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>176.1078440698928</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>83.51342957218313</v>
+        <v>161.5792308851202</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -3754,13 +3754,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>150.4165241571488</v>
       </c>
       <c r="H41" t="n">
-        <v>94.01880886381943</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853824</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.69196057755455</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6597934514066</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
         <v>225.9462130081922</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>128.981732669668</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -3994,7 +3994,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.2188354026014</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>115.1524465449641</v>
       </c>
       <c r="G45" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>156.5880156630749</v>
@@ -4121,7 +4121,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>123.8960088696166</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>114.6635494125476</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
         <v>212.6245410698995</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.0085846595923</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="C2" t="n">
-        <v>44.31505699578452</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="D2" t="n">
-        <v>44.31505699578452</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E2" t="n">
-        <v>44.31505699578452</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F2" t="n">
-        <v>36.94751812655136</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U2" t="n">
-        <v>843.1172863597994</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V2" t="n">
-        <v>566.0629355096959</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W2" t="n">
-        <v>566.0629355096959</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="X2" t="n">
-        <v>566.0629355096959</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.0629355096959</v>
+        <v>266.6719412882472</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394.3055098854692</v>
+        <v>515.9050307487631</v>
       </c>
       <c r="C3" t="n">
-        <v>394.3055098854692</v>
+        <v>515.9050307487631</v>
       </c>
       <c r="D3" t="n">
-        <v>246.717203244413</v>
+        <v>515.9050307487631</v>
       </c>
       <c r="E3" t="n">
-        <v>246.717203244413</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="F3" t="n">
-        <v>246.717203244413</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4418,43 +4418,43 @@
         <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
+        <v>416.655578933882</v>
+      </c>
+      <c r="N3" t="n">
         <v>688.1965482020685</v>
       </c>
-      <c r="N3" t="n">
-        <v>959.7375174702549</v>
-      </c>
       <c r="O3" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>806.5608442562412</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U3" t="n">
-        <v>806.5608442562412</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V3" t="n">
-        <v>806.5608442562412</v>
+        <v>682.9475818703236</v>
       </c>
       <c r="W3" t="n">
-        <v>806.5608442562412</v>
+        <v>682.9475818703236</v>
       </c>
       <c r="X3" t="n">
-        <v>600.0339456618187</v>
+        <v>682.9475818703236</v>
       </c>
       <c r="Y3" t="n">
-        <v>394.3055098854692</v>
+        <v>682.9475818703236</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>170.401920923893</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4509,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>676.7972192224911</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="C5" t="n">
-        <v>676.7972192224911</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="D5" t="n">
-        <v>676.7972192224911</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="E5" t="n">
-        <v>676.7972192224911</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="F5" t="n">
-        <v>576.7173427870933</v>
+        <v>461.4852846729153</v>
       </c>
       <c r="G5" t="n">
-        <v>299.6629919369898</v>
+        <v>446.4804711336922</v>
       </c>
       <c r="H5" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4594,25 +4594,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V5" t="n">
-        <v>953.8515700725947</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W5" t="n">
-        <v>953.8515700725947</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="X5" t="n">
-        <v>676.7972192224911</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="Y5" t="n">
-        <v>676.7972192224911</v>
+        <v>468.8528235421485</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>424.700606140561</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C6" t="n">
-        <v>424.700606140561</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D6" t="n">
-        <v>424.700606140561</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E6" t="n">
-        <v>424.700606140561</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
         <v>109.3200212191178</v>
@@ -4655,7 +4655,7 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1441712859057</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
         <v>630.6851405540922</v>
@@ -4679,19 +4679,19 @@
         <v>630.4290419169106</v>
       </c>
       <c r="U6" t="n">
-        <v>630.4290419169106</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>630.4290419169106</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W6" t="n">
-        <v>630.4290419169106</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="X6" t="n">
-        <v>630.4290419169106</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="Y6" t="n">
-        <v>424.700606140561</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4752,25 +4752,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y7" t="n">
-        <v>169.5780797487469</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>889.1908336860674</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="C8" t="n">
-        <v>889.1908336860674</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="D8" t="n">
-        <v>889.1908336860674</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E8" t="n">
-        <v>784.0146234619663</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>506.9602726118626</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
         <v>229.9059217617589</v>
@@ -4801,7 +4801,7 @@
         <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>889.1908336860674</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>889.1908336860674</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>889.1908336860674</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>889.1908336860674</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>889.1908336860674</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="X8" t="n">
-        <v>889.1908336860674</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="Y8" t="n">
-        <v>889.1908336860674</v>
+        <v>252.2782741702153</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>981.2022424513852</v>
+        <v>133.521003094533</v>
       </c>
       <c r="C9" t="n">
-        <v>808.4491273732024</v>
+        <v>133.521003094533</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>133.521003094533</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>133.521003094533</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>277.4136198757311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M9" t="n">
-        <v>548.9545891439177</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>1001.483734658237</v>
+        <v>1032.542072606371</v>
       </c>
       <c r="V9" t="n">
-        <v>1001.483734658237</v>
+        <v>798.2908291319717</v>
       </c>
       <c r="W9" t="n">
-        <v>1001.483734658237</v>
+        <v>545.776337465305</v>
       </c>
       <c r="X9" t="n">
-        <v>1001.483734658237</v>
+        <v>339.2494388708826</v>
       </c>
       <c r="Y9" t="n">
-        <v>981.2022424513852</v>
+        <v>133.521003094533</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="I10" t="n">
         <v>21.9427045873282</v>
@@ -4968,7 +4968,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4995,19 +4995,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.126858865098</v>
+        <v>1450.650655276616</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.126858865098</v>
+        <v>1079.9586394393</v>
       </c>
       <c r="D11" t="n">
-        <v>1754.387563557128</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.399648652797</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K11" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5068,25 +5068,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U11" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V11" t="n">
-        <v>2203.719860634023</v>
+        <v>1804.721480529702</v>
       </c>
       <c r="W11" t="n">
-        <v>2203.719860634023</v>
+        <v>1450.650655276616</v>
       </c>
       <c r="X11" t="n">
-        <v>2203.719860634023</v>
+        <v>1450.650655276616</v>
       </c>
       <c r="Y11" t="n">
-        <v>1813.126858865098</v>
+        <v>1450.650655276616</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>354.9574895622956</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>218.2331947084326</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L12" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.275517555499</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O12" t="n">
-        <v>2211.066182111574</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P12" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.71143199091319</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="C13" t="n">
         <v>50.71143199091319</v>
@@ -5235,16 +5235,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591335</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W13" t="n">
-        <v>500.0942944152339</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="X13" t="n">
-        <v>271.6696884230023</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.71143199091319</v>
+        <v>135.0684315587752</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2114.594364319349</v>
+        <v>953.0171645429208</v>
       </c>
       <c r="C14" t="n">
-        <v>2114.594364319349</v>
+        <v>953.0171645429208</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.387563557128</v>
+        <v>592.8103637807002</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>205.8224488763694</v>
       </c>
       <c r="F14" t="n">
-        <v>955.9917057431599</v>
+        <v>205.8224488763694</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>205.8224488763694</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1718.217842201916</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1343.610166311846</v>
       </c>
       <c r="Y14" t="n">
-        <v>2144.978597776734</v>
+        <v>953.0171645429208</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
         <v>181.9669871305373</v>
@@ -5381,28 +5381,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>199.170648327478</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>199.170648327478</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5478,10 +5478,10 @@
         <v>679.5420961591335</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>602.0316234370255</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>381.0733670049364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.71143199091319</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="C17" t="n">
-        <v>50.71143199091319</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D17" t="n">
-        <v>50.71143199091319</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E17" t="n">
-        <v>50.71143199091319</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F17" t="n">
-        <v>50.71143199091319</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H17" t="n">
         <v>50.71143199091319</v>
@@ -5515,10 +5515,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
         <v>829.7261648535823</v>
@@ -5527,7 +5527,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5542,25 +5542,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2072.288667455001</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U17" t="n">
-        <v>1818.371334220299</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.519595308663</v>
+        <v>1665.805926272166</v>
       </c>
       <c r="W17" t="n">
-        <v>1132.448770055577</v>
+        <v>1599.179847640254</v>
       </c>
       <c r="X17" t="n">
-        <v>757.8410941655072</v>
+        <v>1599.179847640254</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.2480923965821</v>
+        <v>1208.586845871329</v>
       </c>
     </row>
     <row r="18">
@@ -5573,22 +5573,22 @@
         <v>832.9084402786798</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0016995789124</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H18" t="n">
-        <v>104.9220745431727</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5597,13 +5597,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L18" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
         <v>1620.913172155677</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>268.2076775571585</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="C19" t="n">
-        <v>268.2076775571585</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="D19" t="n">
-        <v>268.2076775571585</v>
+        <v>273.5401592081653</v>
       </c>
       <c r="E19" t="n">
-        <v>268.2076775571585</v>
+        <v>125.0809428716005</v>
       </c>
       <c r="F19" t="n">
-        <v>120.5723023957398</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5723023957398</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H19" t="n">
-        <v>120.5723023957398</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I19" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J19" t="n">
         <v>50.71143199091319</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>268.2076775571585</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W19" t="n">
-        <v>268.2076775571585</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="X19" t="n">
-        <v>268.2076775571585</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="Y19" t="n">
-        <v>268.2076775571585</v>
+        <v>424.0508324551545</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1627.101685997883</v>
+        <v>1215.693743088245</v>
       </c>
       <c r="C20" t="n">
-        <v>1627.101685997883</v>
+        <v>1215.693743088245</v>
       </c>
       <c r="D20" t="n">
-        <v>1266.894885235662</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E20" t="n">
-        <v>879.9069703313312</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F20" t="n">
         <v>468.4990274216939</v>
@@ -5752,10 +5752,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
         <v>829.7261648535822</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2491.324070142329</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2491.324070142329</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T20" t="n">
-        <v>2271.612021001511</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U20" t="n">
-        <v>2017.694687766808</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V20" t="n">
-        <v>2017.694687766808</v>
+        <v>1977.893752302957</v>
       </c>
       <c r="W20" t="n">
-        <v>2017.694687766808</v>
+        <v>1977.893752302957</v>
       </c>
       <c r="X20" t="n">
-        <v>2017.694687766808</v>
+        <v>1603.286076412887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.101685997883</v>
+        <v>1603.286076412887</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C21" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D21" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E21" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F21" t="n">
-        <v>356.7252812502705</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="G21" t="n">
-        <v>220.0009863964077</v>
+        <v>218.2331947084326</v>
       </c>
       <c r="H21" t="n">
         <v>114.9213613606679</v>
@@ -5831,52 +5831,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L21" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N21" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S21" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C22" t="n">
-        <v>50.71143199091319</v>
+        <v>221.5328741201256</v>
       </c>
       <c r="D22" t="n">
-        <v>50.71143199091319</v>
+        <v>71.02220087313631</v>
       </c>
       <c r="E22" t="n">
         <v>50.71143199091319</v>
@@ -5922,40 +5922,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O22" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>314.9924154108593</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>314.9924154108593</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1203.49225759852</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="C23" t="n">
-        <v>832.8002417612039</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="D23" t="n">
-        <v>472.5934409989833</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="E23" t="n">
-        <v>85.60552609465248</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F23" t="n">
-        <v>85.60552609465248</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G23" t="n">
-        <v>85.60552609465248</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H23" t="n">
-        <v>85.60552609465248</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K23" t="n">
         <v>432.7629010724813</v>
@@ -6001,7 +6001,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2535.571599545659</v>
+        <v>2516.587572771839</v>
       </c>
       <c r="S23" t="n">
-        <v>2356.285268582156</v>
+        <v>2516.587572771839</v>
       </c>
       <c r="T23" t="n">
-        <v>2356.285268582156</v>
+        <v>2516.587572771839</v>
       </c>
       <c r="U23" t="n">
-        <v>2356.285268582156</v>
+        <v>2516.587572771839</v>
       </c>
       <c r="V23" t="n">
-        <v>2356.285268582156</v>
+        <v>2516.587572771839</v>
       </c>
       <c r="W23" t="n">
-        <v>2356.285268582156</v>
+        <v>2516.587572771839</v>
       </c>
       <c r="X23" t="n">
-        <v>1981.677592692086</v>
+        <v>2141.979896881769</v>
       </c>
       <c r="Y23" t="n">
-        <v>1591.084590923161</v>
+        <v>2141.979896881769</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E24" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F24" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G24" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H24" t="n">
-        <v>73.27740472504951</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6074,7 +6074,7 @@
         <v>296.4476481521845</v>
       </c>
       <c r="L24" t="n">
-        <v>687.719923476846</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M24" t="n">
         <v>1197.116407734492</v>
@@ -6092,28 +6092,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390.5596952627541</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="C25" t="n">
-        <v>390.5596952627541</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="D25" t="n">
-        <v>390.5596952627541</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="E25" t="n">
-        <v>242.1004789261893</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="F25" t="n">
-        <v>94.46510376477056</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G25" t="n">
-        <v>94.46510376477056</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H25" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I25" t="n">
         <v>50.71143199091319</v>
@@ -6159,40 +6159,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N25" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O25" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P25" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>679.5420961591334</v>
+        <v>575.5379324558405</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591334</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591334</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591334</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="W25" t="n">
-        <v>390.5596952627541</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="X25" t="n">
-        <v>390.5596952627541</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.5596952627541</v>
+        <v>347.3094344677676</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.3913075309111</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C26" t="n">
-        <v>379.3913075309111</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D26" t="n">
-        <v>379.3913075309111</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E26" t="n">
-        <v>379.3913075309111</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F26" t="n">
-        <v>379.3913075309111</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G26" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
         <v>50.71143199091319</v>
@@ -6229,13 +6229,13 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M26" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
         <v>1735.423100897411</v>
@@ -6256,22 +6256,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>2038.083383361117</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.519595308663</v>
+        <v>1995.573386378818</v>
       </c>
       <c r="W26" t="n">
-        <v>1141.591316745623</v>
+        <v>1641.502561125732</v>
       </c>
       <c r="X26" t="n">
-        <v>766.9836408555525</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="Y26" t="n">
-        <v>766.9836408555525</v>
+        <v>1266.894885235662</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>915.4220925802833</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C27" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D27" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E27" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F27" t="n">
-        <v>292.5153518805159</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G27" t="n">
-        <v>155.791057026653</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H27" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
@@ -6308,22 +6308,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K27" t="n">
-        <v>181.9669871305374</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L27" t="n">
-        <v>573.239262455199</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M27" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N27" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O27" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6332,25 +6332,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S27" t="n">
-        <v>2406.042074167387</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T27" t="n">
-        <v>2208.367885802846</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U27" t="n">
-        <v>1981.485713213681</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V27" t="n">
-        <v>1747.234469739282</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W27" t="n">
-        <v>1494.719978072616</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X27" t="n">
-        <v>1288.193079478193</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1082.464643701844</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>199.170648327478</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C28" t="n">
-        <v>199.170648327478</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D28" t="n">
-        <v>199.170648327478</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G28" t="n">
         <v>50.71143199091319</v>
@@ -6408,28 +6408,28 @@
         <v>679.5420961591334</v>
       </c>
       <c r="R28" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S28" t="n">
-        <v>381.0733670049364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T28" t="n">
-        <v>381.0733670049364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U28" t="n">
-        <v>381.0733670049364</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="V28" t="n">
-        <v>381.0733670049364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="W28" t="n">
-        <v>381.0733670049364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="X28" t="n">
-        <v>381.0733670049364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y28" t="n">
-        <v>381.0733670049364</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1757.386264452092</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.694248614776</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D29" t="n">
         <v>1266.894885235662</v>
@@ -6454,61 +6454,61 @@
         <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N29" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O29" t="n">
-        <v>2113.071138623964</v>
+        <v>2113.071138623965</v>
       </c>
       <c r="P29" t="n">
-        <v>2398.446208459428</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q29" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X29" t="n">
-        <v>2535.571599545659</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y29" t="n">
-        <v>2144.978597776733</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606678</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I30" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521844</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L30" t="n">
-        <v>687.7199234768459</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M30" t="n">
         <v>1197.116407734492</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.90885734261659</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="C31" t="n">
-        <v>50.71143199091317</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091317</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091317</v>
+        <v>381.3054627812636</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091317</v>
+        <v>233.6700876198449</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091317</v>
+        <v>64.64877025688321</v>
       </c>
       <c r="H31" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J31" t="n">
-        <v>50.71143199091317</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K31" t="n">
         <v>100.3216812543103</v>
@@ -6630,43 +6630,43 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M31" t="n">
-        <v>355.9743406206214</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619502</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O31" t="n">
-        <v>606.6105655578847</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591333</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q31" t="n">
-        <v>679.5420961591333</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R31" t="n">
-        <v>679.5420961591333</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="S31" t="n">
-        <v>464.7698324521641</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="T31" t="n">
-        <v>464.7698324521641</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="U31" t="n">
-        <v>464.7698324521641</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="V31" t="n">
-        <v>464.7698324521641</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="W31" t="n">
-        <v>464.7698324521641</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="X31" t="n">
-        <v>464.7698324521641</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="Y31" t="n">
-        <v>243.811576020075</v>
+        <v>529.7646791178285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>822.326175662771</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="C32" t="n">
-        <v>822.326175662771</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="D32" t="n">
-        <v>462.1193749005504</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="E32" t="n">
-        <v>462.1193749005504</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G32" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H32" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="I32" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M32" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O32" t="n">
-        <v>2113.071138623965</v>
+        <v>2113.071138623964</v>
       </c>
       <c r="P32" t="n">
-        <v>2398.446208459429</v>
+        <v>2398.446208459428</v>
       </c>
       <c r="Q32" t="n">
         <v>2535.571599545659</v>
@@ -6727,25 +6727,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T32" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U32" t="n">
-        <v>2471.287047559323</v>
+        <v>1818.371334220298</v>
       </c>
       <c r="V32" t="n">
-        <v>2329.190011899493</v>
+        <v>1486.519595308662</v>
       </c>
       <c r="W32" t="n">
-        <v>1975.119186646408</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="X32" t="n">
-        <v>1600.511510756337</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="Y32" t="n">
-        <v>1209.918508987412</v>
+        <v>1367.399648652797</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786793</v>
       </c>
       <c r="C33" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004965</v>
       </c>
       <c r="D33" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594404</v>
       </c>
       <c r="E33" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622951</v>
       </c>
       <c r="F33" t="n">
-        <v>292.5153518805159</v>
+        <v>210.001699578912</v>
       </c>
       <c r="G33" t="n">
-        <v>155.791057026653</v>
+        <v>73.27740472504905</v>
       </c>
       <c r="H33" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I33" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J33" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="K33" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L33" t="n">
-        <v>757.4212114061545</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N33" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P33" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R33" t="n">
-        <v>2481.698134656769</v>
+        <v>2481.698134656768</v>
       </c>
       <c r="S33" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865783</v>
       </c>
       <c r="T33" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U33" t="n">
-        <v>1981.485713213681</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V33" t="n">
-        <v>1747.234469739282</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W33" t="n">
-        <v>1494.719978072616</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.679427176589</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.464643701844</v>
+        <v>999.9509914002398</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="H34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="K34" t="n">
         <v>100.3216812543103</v>
@@ -6885,25 +6885,25 @@
         <v>679.5420961591334</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591334</v>
+        <v>475.2240130578539</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591334</v>
+        <v>475.2240130578539</v>
       </c>
       <c r="U34" t="n">
-        <v>390.6311794045658</v>
+        <v>475.2240130578539</v>
       </c>
       <c r="V34" t="n">
-        <v>339.6938328872925</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>937.1274251290104</v>
+        <v>1028.707763308938</v>
       </c>
       <c r="C35" t="n">
-        <v>566.4354092916946</v>
+        <v>1014.299745107493</v>
       </c>
       <c r="D35" t="n">
-        <v>566.4354092916946</v>
+        <v>1014.299745107493</v>
       </c>
       <c r="E35" t="n">
-        <v>179.4474943873637</v>
+        <v>627.311830203162</v>
       </c>
       <c r="F35" t="n">
-        <v>179.4474943873637</v>
+        <v>627.311830203162</v>
       </c>
       <c r="G35" t="n">
-        <v>179.4474943873637</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="H35" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370295</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724816</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T35" t="n">
-        <v>2251.574998418504</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U35" t="n">
-        <v>1997.657665183802</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V35" t="n">
-        <v>1665.805926272166</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W35" t="n">
-        <v>1311.735101019081</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X35" t="n">
-        <v>937.1274251290104</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y35" t="n">
-        <v>937.1274251290104</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="36">
@@ -7028,7 +7028,7 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
         <v>2045.703836711752</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>458.5838397270443</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C37" t="n">
-        <v>458.5838397270443</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D37" t="n">
-        <v>458.5838397270443</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E37" t="n">
-        <v>458.5838397270443</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F37" t="n">
-        <v>377.9838957680342</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G37" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H37" t="n">
         <v>50.71143199091319</v>
@@ -7122,25 +7122,25 @@
         <v>679.5420961591334</v>
       </c>
       <c r="S37" t="n">
-        <v>679.5420961591334</v>
+        <v>464.7698324521642</v>
       </c>
       <c r="T37" t="n">
-        <v>679.5420961591334</v>
+        <v>236.5413344640913</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5420961591334</v>
+        <v>236.5413344640913</v>
       </c>
       <c r="V37" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W37" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X37" t="n">
-        <v>679.5420961591334</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.5838397270443</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.403447828229</v>
+        <v>1358.210646802698</v>
       </c>
       <c r="C38" t="n">
-        <v>50.71143199091319</v>
+        <v>987.5186309653825</v>
       </c>
       <c r="D38" t="n">
-        <v>50.71143199091319</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="E38" t="n">
-        <v>50.71143199091319</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="F38" t="n">
-        <v>50.71143199091319</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G38" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H38" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7177,10 +7177,10 @@
         <v>154.6737472370296</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2479.831072117406</v>
+        <v>2477.482149714779</v>
       </c>
       <c r="S38" t="n">
-        <v>2479.831072117406</v>
+        <v>2477.482149714779</v>
       </c>
       <c r="T38" t="n">
-        <v>2260.119022976587</v>
+        <v>2477.482149714779</v>
       </c>
       <c r="U38" t="n">
-        <v>2260.119022976587</v>
+        <v>2477.482149714779</v>
       </c>
       <c r="V38" t="n">
-        <v>1928.267284064951</v>
+        <v>2477.482149714779</v>
       </c>
       <c r="W38" t="n">
-        <v>1574.196458811866</v>
+        <v>2123.411324461693</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.588782921795</v>
+        <v>1748.803648571623</v>
       </c>
       <c r="Y38" t="n">
-        <v>808.9957811528704</v>
+        <v>1358.210646802698</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>832.9084402786798</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C39" t="n">
-        <v>660.1553252004969</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D39" t="n">
-        <v>554.2109751950592</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E39" t="n">
-        <v>396.6014461979139</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F39" t="n">
-        <v>251.6456562145308</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G39" t="n">
-        <v>114.9213613606679</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7265,40 +7265,40 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O39" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P39" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S39" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T39" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U39" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V39" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W39" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X39" t="n">
-        <v>1205.67942717659</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y39" t="n">
-        <v>999.9509914002402</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="C40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="D40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>2451.214599977798</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="V40" t="n">
-        <v>2195.723336273819</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="W40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="X40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="Y40" t="n">
-        <v>1906.740935377439</v>
+        <v>516.3307518307292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2251.574998418504</v>
+        <v>1361.249973554121</v>
       </c>
       <c r="C41" t="n">
-        <v>1880.882982581189</v>
+        <v>1361.249973554121</v>
       </c>
       <c r="D41" t="n">
-        <v>1520.676181818968</v>
+        <v>1001.0431727919</v>
       </c>
       <c r="E41" t="n">
-        <v>1133.688266914637</v>
+        <v>614.0552578875695</v>
       </c>
       <c r="F41" t="n">
-        <v>722.2803240049998</v>
+        <v>202.6473149779322</v>
       </c>
       <c r="G41" t="n">
-        <v>304.4927285742191</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I41" t="n">
         <v>50.71143199091319</v>
@@ -7414,16 +7414,16 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535821</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7441,22 +7441,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2251.574998418504</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U41" t="n">
-        <v>2251.574998418504</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V41" t="n">
-        <v>2251.574998418504</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W41" t="n">
-        <v>2251.574998418504</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="X41" t="n">
-        <v>2251.574998418504</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.574998418504</v>
+        <v>1748.842306878762</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G42" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L42" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
         <v>1620.913172155677</v>
@@ -7517,25 +7517,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S42" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="G43" t="n">
         <v>50.71143199091319</v>
@@ -7581,40 +7581,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>679.5420961591334</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S43" t="n">
-        <v>534.431193682965</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T43" t="n">
-        <v>306.2026956948922</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="U43" t="n">
-        <v>306.2026956948922</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="V43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="W43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>86.76391742278648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1757.386264452093</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="C44" t="n">
-        <v>1627.101685997883</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="D44" t="n">
-        <v>1266.894885235662</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E44" t="n">
-        <v>879.9069703313312</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F44" t="n">
-        <v>468.4990274216939</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7648,19 +7648,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370295</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535822</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.571599545659</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W44" t="n">
-        <v>2535.571599545659</v>
+        <v>1956.385979958191</v>
       </c>
       <c r="X44" t="n">
-        <v>2535.571599545659</v>
+        <v>1956.385979958191</v>
       </c>
       <c r="Y44" t="n">
-        <v>2144.978597776734</v>
+        <v>1956.385979958191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964077</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305374</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L45" t="n">
         <v>573.239262455199</v>
@@ -7751,28 +7751,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S45" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T45" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U45" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V45" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W45" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="C46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="D46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="E46" t="n">
-        <v>175.8589156975966</v>
+        <v>166.5331990742946</v>
       </c>
       <c r="F46" t="n">
-        <v>175.8589156975966</v>
+        <v>166.5331990742946</v>
       </c>
       <c r="G46" t="n">
-        <v>50.71143199091319</v>
+        <v>166.5331990742946</v>
       </c>
       <c r="H46" t="n">
         <v>50.71143199091319</v>
@@ -7818,40 +7818,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N46" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O46" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P46" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q46" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>679.5420961591334</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S46" t="n">
-        <v>464.7698324521642</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T46" t="n">
-        <v>464.7698324521642</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="U46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="V46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="W46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="X46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.8589156975966</v>
+        <v>314.9924154108594</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8066,19 +8066,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>277.816905905207</v>
+        <v>269.5263315788349</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8303,10 +8303,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>228.6047863635229</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8531,19 +8531,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155704</v>
+        <v>397.1900756823312</v>
       </c>
       <c r="N9" t="n">
-        <v>210.61428181678</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8552,7 +8552,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8786,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
-        <v>89.00147381534887</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9245,7 +9245,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9494,13 +9494,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9956,7 +9956,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K27" t="n">
-        <v>159.4068151580848</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.843347910285</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10439,16 +10439,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>382.8790379822983</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.44770712425048</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10676,10 +10676,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10913,16 +10913,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>390.6071114910983</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11068,7 +11068,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M41" t="n">
-        <v>467.4940748325459</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>159.4068151580848</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11375,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>159.4068151580847</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -23260,10 +23260,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>298.4528303997079</v>
+        <v>128.0618966165234</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.750113771095235</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>83.82312335901892</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -23475,16 +23475,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>108.4392531609549</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353.6360188685833</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>171.8331700679963</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
@@ -23557,10 +23557,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>91.92161561464266</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23661,22 +23661,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>149.4049919374223</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70.3451161897828</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
@@ -23743,13 +23743,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>284.5702991549618</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.899293949320235</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>72.5332056379241</v>
       </c>
       <c r="G19" t="n">
         <v>167.3311041893321</v>
@@ -23910,10 +23910,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
-        <v>117.1550995562075</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.83665235717606</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>171.4405490555225</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.750113771095229</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.92161561464283</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>126.8669629797983</v>
       </c>
       <c r="F22" t="n">
         <v>146.1590214098045</v>
@@ -24150,7 +24150,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>24.38363400127525</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>122.6795215909515</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647295</v>
+        <v>44.84751996039114</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
         <v>217.5149286494106</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853824</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>113.352499893899</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
-        <v>212.6245410698995</v>
+        <v>109.6604190036394</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.0218075870219</v>
@@ -24426,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24451,16 +24451,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
         <v>157.2246747536534</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>286.4483245100428</v>
       </c>
       <c r="W26" t="n">
-        <v>9.051121223144719</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>53.33473024000175</v>
       </c>
       <c r="S27" t="n">
-        <v>28.35378553858568</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24609,13 +24609,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24648,19 +24648,19 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>65.42014207813638</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>83.74690531675517</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>315.9019358523184</v>
       </c>
       <c r="D29" t="n">
-        <v>238.0033630092757</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>177.493467653868</v>
@@ -24745,7 +24745,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>53.33473024000175</v>
       </c>
       <c r="S30" t="n">
-        <v>91.92161561464374</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>156.251101833016</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>142.8706700667074</v>
       </c>
       <c r="I31" t="n">
         <v>136.9633875020681</v>
@@ -24885,10 +24885,10 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
         <v>225.9462130081922</v>
@@ -24906,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>187.8571562192876</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>232.6013698112479</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.68851577858786</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.68851577858754</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.6686349500177</v>
@@ -25125,19 +25125,19 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>10.34963879963277</v>
       </c>
       <c r="T34" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>202.5083780148386</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>352.7211576595123</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -25168,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>197.9443750121119</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,13 +25323,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>66.36507689038457</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
@@ -25362,16 +25362,16 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>68.96474761849282</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -25405,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.458584312501792</v>
+        <v>6.133151133900981</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>41.22751706926221</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853824</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>28.3537855385855</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25563,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>202.5083780148388</v>
+        <v>124.4425767019017</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>263.193195319324</v>
       </c>
       <c r="H41" t="n">
-        <v>231.3742679207785</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25696,7 +25696,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>131.6391436117775</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25809,7 +25809,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.96474761849284</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>238.0033630092747</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25924,16 +25924,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>169.3112815979532</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>28.35378553858524</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>43.43509531971549</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6686349500177</v>
+        <v>42.00508553747018</v>
       </c>
       <c r="I46" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>704173.8435733891</v>
+        <v>704173.8435733893</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>704173.8435733891</v>
+        <v>704173.8435733893</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>704173.8435733893</v>
+        <v>704173.8435733891</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>704173.8435733893</v>
+        <v>704173.8435733896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>704173.8435733896</v>
+        <v>704173.8435733893</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>704173.8435733893</v>
+        <v>704173.8435733892</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488351.6451689618</v>
+        <v>488351.6451689617</v>
       </c>
       <c r="C2" t="n">
-        <v>488351.6451689618</v>
+        <v>488351.6451689617</v>
       </c>
       <c r="D2" t="n">
         <v>488351.6451689618</v>
       </c>
       <c r="E2" t="n">
+        <v>329217.5724393258</v>
+      </c>
+      <c r="F2" t="n">
         <v>329217.5724393259</v>
-      </c>
-      <c r="F2" t="n">
-        <v>329217.5724393258</v>
       </c>
       <c r="G2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="H2" t="n">
+        <v>329217.5724393257</v>
+      </c>
+      <c r="I2" t="n">
+        <v>329217.572439326</v>
+      </c>
+      <c r="J2" t="n">
         <v>329217.5724393259</v>
-      </c>
-      <c r="I2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="J2" t="n">
-        <v>329217.5724393257</v>
       </c>
       <c r="K2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="L2" t="n">
-        <v>329217.5724393258</v>
+        <v>329217.5724393256</v>
       </c>
       <c r="M2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="N2" t="n">
-        <v>329217.5724393259</v>
+        <v>329217.572439326</v>
       </c>
       <c r="O2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="P2" t="n">
-        <v>329217.5724393259</v>
+        <v>329217.572439326</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808618</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>336891.749131344</v>
       </c>
       <c r="C4" t="n">
-        <v>336891.7491313439</v>
+        <v>336891.749131344</v>
       </c>
       <c r="D4" t="n">
-        <v>336891.7491313439</v>
+        <v>336891.749131344</v>
       </c>
       <c r="E4" t="n">
-        <v>73655.68560465421</v>
+        <v>73655.68560465422</v>
       </c>
       <c r="F4" t="n">
         <v>73655.68560465421</v>
@@ -26435,7 +26435,7 @@
         <v>73655.68560465421</v>
       </c>
       <c r="H4" t="n">
-        <v>73655.68560465422</v>
+        <v>73655.68560465421</v>
       </c>
       <c r="I4" t="n">
         <v>73655.68560465421</v>
@@ -26444,13 +26444,13 @@
         <v>73655.68560465421</v>
       </c>
       <c r="K4" t="n">
-        <v>73655.68560465419</v>
+        <v>73655.68560465421</v>
       </c>
       <c r="L4" t="n">
         <v>73655.68560465421</v>
       </c>
       <c r="M4" t="n">
-        <v>73655.68560465422</v>
+        <v>73655.68560465421</v>
       </c>
       <c r="N4" t="n">
         <v>73655.68560465421</v>
@@ -26496,10 +26496,10 @@
         <v>45292.2611156748</v>
       </c>
       <c r="K5" t="n">
-        <v>45292.26111567478</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="L5" t="n">
-        <v>45292.2611156748</v>
+        <v>45292.26111567479</v>
       </c>
       <c r="M5" t="n">
         <v>45292.2611156748</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9237.028183508548</v>
+        <v>9237.028183508475</v>
       </c>
       <c r="C6" t="n">
-        <v>101155.8405512485</v>
+        <v>101155.8405512483</v>
       </c>
       <c r="D6" t="n">
-        <v>101155.8405512485</v>
+        <v>101155.8405512484</v>
       </c>
       <c r="E6" t="n">
-        <v>-145919.8041676832</v>
+        <v>-152550.3905314183</v>
       </c>
       <c r="F6" t="n">
-        <v>210269.6257189968</v>
+        <v>203639.039355262</v>
       </c>
       <c r="G6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.039355262</v>
       </c>
       <c r="H6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.0393552619</v>
       </c>
       <c r="I6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.0393552621</v>
       </c>
       <c r="J6" t="n">
-        <v>138504.9132309105</v>
+        <v>131874.3268671758</v>
       </c>
       <c r="K6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.0393552621</v>
       </c>
       <c r="L6" t="n">
-        <v>210269.6257189968</v>
+        <v>203639.0393552617</v>
       </c>
       <c r="M6" t="n">
-        <v>120653.6014204595</v>
+        <v>114023.0150567247</v>
       </c>
       <c r="N6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.0393552621</v>
       </c>
       <c r="O6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.039355262</v>
       </c>
       <c r="P6" t="n">
-        <v>210269.6257189969</v>
+        <v>203639.0393552621</v>
       </c>
     </row>
   </sheetData>
@@ -26816,10 +26816,10 @@
         <v>633.8928998864149</v>
       </c>
       <c r="K4" t="n">
-        <v>633.8928998864146</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="L4" t="n">
-        <v>633.8928998864149</v>
+        <v>633.8928998864147</v>
       </c>
       <c r="M4" t="n">
         <v>633.8928998864149</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416023</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>124.7385032917729</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>342.3550023077468</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
@@ -27399,10 +27399,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>174.3704843159373</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>20.24549192679834</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>117.0670640461102</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
         <v>146.1590214098045</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -27596,7 +27596,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V4" t="n">
-        <v>252.9363510669392</v>
+        <v>168.5583340190123</v>
       </c>
       <c r="W4" t="n">
         <v>286.0925768874155</v>
@@ -27627,16 +27627,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>308.2147858094971</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>123.7350995099395</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -27675,13 +27675,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27706,13 +27706,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>77.76517873849554</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>190.6573243660415</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
         <v>167.8895889301081</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>222.3574069614225</v>
+        <v>58.21869003764755</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>253.2981651592603</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -27861,13 +27861,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>278.9935876334273</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>136.1213131223407</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27934,25 +27934,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -27988,19 +27988,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>160.7099518747625</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.5924741338026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28025,13 +28025,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>142.7350090859033</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
@@ -28067,7 +28067,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -32469,13 +32469,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K20" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
         <v>196.477585181553</v>
@@ -32484,7 +32484,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N20" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O20" t="n">
         <v>209.776231993146</v>
@@ -32496,16 +32496,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S20" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I21" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K21" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L21" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M21" t="n">
         <v>168.7893200645195</v>
@@ -32566,16 +32566,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O21" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P21" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S21" t="n">
         <v>12.37359824256949</v>
@@ -32584,7 +32584,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J22" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L22" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M22" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P22" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R22" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I23" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J23" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K23" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L23" t="n">
         <v>196.477585181553</v>
@@ -32721,7 +32721,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N23" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O23" t="n">
         <v>209.776231993146</v>
@@ -32733,16 +32733,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R23" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S23" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T23" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H24" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I24" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J24" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K24" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L24" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M24" t="n">
         <v>168.7893200645195</v>
@@ -32803,16 +32803,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P24" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R24" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S24" t="n">
         <v>12.37359824256949</v>
@@ -32821,7 +32821,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H25" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I25" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J25" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K25" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L25" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M25" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N25" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O25" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P25" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R25" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S25" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33891,13 +33891,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I38" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J38" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K38" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L38" t="n">
         <v>196.477585181553</v>
@@ -33906,7 +33906,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N38" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O38" t="n">
         <v>209.776231993146</v>
@@ -33918,16 +33918,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R38" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S38" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T38" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H39" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I39" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J39" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K39" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L39" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M39" t="n">
         <v>168.7893200645195</v>
@@ -33988,16 +33988,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O39" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P39" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R39" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S39" t="n">
         <v>12.37359824256949</v>
@@ -34006,7 +34006,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H40" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I40" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J40" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K40" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L40" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M40" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N40" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O40" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P40" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R40" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S40" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T40" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,13 +34128,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I41" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J41" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K41" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L41" t="n">
         <v>196.477585181553</v>
@@ -34143,7 +34143,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N41" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O41" t="n">
         <v>209.776231993146</v>
@@ -34155,16 +34155,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R41" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S41" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T41" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H42" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I42" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K42" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L42" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M42" t="n">
         <v>168.7893200645195</v>
@@ -34225,16 +34225,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O42" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P42" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R42" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S42" t="n">
         <v>12.37359824256949</v>
@@ -34243,7 +34243,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H43" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I43" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J43" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K43" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L43" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M43" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N43" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O43" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P43" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R43" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S43" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T43" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,13 +34365,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I44" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J44" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K44" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L44" t="n">
         <v>196.477585181553</v>
@@ -34380,7 +34380,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N44" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O44" t="n">
         <v>209.776231993146</v>
@@ -34392,16 +34392,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R44" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S44" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T44" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H45" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I45" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L45" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M45" t="n">
         <v>168.7893200645195</v>
@@ -34462,16 +34462,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O45" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P45" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R45" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S45" t="n">
         <v>12.37359824256949</v>
@@ -34480,7 +34480,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H46" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I46" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J46" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K46" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L46" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M46" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N46" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O46" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P46" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R46" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S46" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T46" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>138.7855675718737</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>90.02410328955504</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>258.6093926083634</v>
+      </c>
+      <c r="N9" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N9" t="n">
-        <v>82.55611253553002</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35272,7 +35272,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35506,10 +35506,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.7832499334201</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>62.17602748516736</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
@@ -35965,7 +35965,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K18" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L18" t="n">
         <v>395.2245205299612</v>
@@ -35974,7 +35974,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
@@ -36214,13 +36214,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O21" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
         <v>51.39564078603548</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L25" t="n">
         <v>120.492579780375</v>
@@ -36533,7 +36533,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P25" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
         <v>395.2245205299612</v>
@@ -36694,7 +36694,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.39564078603456</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37159,16 +37159,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>428.0775398193787</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>308.7735493767197</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
         <v>327.78324993342</v>
@@ -37633,16 +37633,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O39" t="n">
-        <v>429.0814793495699</v>
+        <v>410.0717787928695</v>
       </c>
       <c r="P39" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L40" t="n">
         <v>120.492579780375</v>
@@ -37718,7 +37718,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P40" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37788,7 +37788,7 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M41" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N41" t="n">
         <v>453.3197218150998</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K42" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299612</v>
@@ -37870,13 +37870,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
         <v>167.0326721210326</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L43" t="n">
         <v>120.492579780375</v>
@@ -37955,7 +37955,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P43" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K44" t="n">
         <v>280.8981351873249</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
-        <v>132.5813688279032</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299612</v>
@@ -38113,7 +38113,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
         <v>167.0326721210326</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L46" t="n">
         <v>120.492579780375</v>
@@ -38192,7 +38192,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P46" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
